--- a/需求表格.xlsx
+++ b/需求表格.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\1895楼，一跃解千愁\21221\数据库实践\databse_practise\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DEE0A2-8C6E-4FDC-81E0-2C6FB0F82E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17600" windowHeight="7670"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
   <si>
     <t>E/R图</t>
   </si>
@@ -100,9 +106,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>这里可以试着搞一个触发器，判定out_time需要晚于launch_time</t>
-  </si>
-  <si>
     <t>out_time</t>
   </si>
   <si>
@@ -205,9 +208,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>release_user</t>
   </si>
   <si>
@@ -232,9 +232,6 @@
     <t>star</t>
   </si>
   <si>
-    <t>这里可以有一个触发器判定是1-5之间的数</t>
-  </si>
-  <si>
     <t>comment_date</t>
   </si>
   <si>
@@ -245,19 +242,413 @@
   </si>
   <si>
     <t>优先级最低</t>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>price&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_time&lt;launch_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_insert_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_insert_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_insert_sales</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_insert_outtime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_consumer_insert_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_consumer_insert_lastlogin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login&lt;birth_date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_type_insert_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_orders_insert_no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_orders_insert_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time&lt;'1990-01-01'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_orders_insert_totalprice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_address_insert_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr_id&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_comments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_level&lt;0 or &gt;100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_num&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_num&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>star&lt;0 or &gt;5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_date&lt;'1990-01-01'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_update_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_update_sales</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_product_update_outtime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_consumer_update_lastlogin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_orders_update_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_orders_update_totalprice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_courier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(courier的courier_id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_order</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(orders的order_no)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_place</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>派送</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>运货商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_courier_insert_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_id&lt;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_courier_insert_setuptime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup_time&lt;'1990-01-01'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_courier_update_setuptime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_delivery_insert_delivertime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_time&lt;'1990-01-01'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_delivery_insert_arrivaltime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival_time&lt;deliver_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_insert_userlevel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_insert_likenum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_insert_replynum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_insert_star</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_insert_commentdate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_update_userlevel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_update_likenum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_update_replynum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_update_star</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_comments_update_commentdate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行函数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_price_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_outtime_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_likenum_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_sales_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer_lastlogin_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_totalprice_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_userlevel_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_replynum_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_star_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_date_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_id_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_setuptime_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_delivertime_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_arrivaltime_func()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,122 +693,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,170 +755,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -634,180 +779,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,124 +794,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1191,28 +1085,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="35.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,12 +1127,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="7:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1267,8 +1165,11 @@
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:9">
+      <c r="I4" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1309,41 +1210,42 @@
       <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
+      <c r="H7" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="3:4">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1352,63 +1254,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1420,23 +1322,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1445,29 +1347,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="2:4">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -1475,42 +1377,42 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1519,148 +1421,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>63</v>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1669,15 +1568,690 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:E9"/>
-  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>